--- a/_docs/структура и бизнес-процессы.xlsx
+++ b/_docs/структура и бизнес-процессы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="13095" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Структура сайта" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Srgg</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,12 +111,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Под вопросом...</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="340">
   <si>
     <t>Предметы аукциона</t>
   </si>
@@ -21054,13 +21069,40 @@
       </rPr>
       <t>(length=0)</t>
     </r>
+  </si>
+  <si>
+    <t>Главное меню</t>
+  </si>
+  <si>
+    <t>Нижнее меню</t>
+  </si>
+  <si>
+    <t>Вопросы</t>
+  </si>
+  <si>
+    <t>Доставка и оплата</t>
+  </si>
+  <si>
+    <t>Чёрный список</t>
+  </si>
+  <si>
+    <t>Проданные лоты</t>
+  </si>
+  <si>
+    <t>Категория: проданные лоты</t>
+  </si>
+  <si>
+    <t>Каталоги</t>
+  </si>
+  <si>
+    <t>Приём антиквариата на торги</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21378,6 +21420,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -21465,7 +21515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -21541,6 +21591,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -21843,11 +21899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21871,28 +21927,23 @@
       </c>
       <c r="B2" s="38"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:3" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="47"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>43</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>39</v>
@@ -21901,71 +21952,68 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>35</v>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>338</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>33</v>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>33</v>
+      <c r="A9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>32</v>
+      <c r="A12" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>39</v>
@@ -21976,7 +22024,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>39</v>
@@ -21985,158 +22033,242 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>34</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B24" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+    <row r="26" spans="1:3" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="B26" s="47"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="str">
+        <f>A25</f>
+        <v>Контакты</v>
+      </c>
+      <c r="B27" s="18" t="str">
+        <f>B25</f>
+        <v>статья</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="41"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="B32" s="41"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B33" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B34" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B35" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B36" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B37" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B38" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A11" r:id="rId2"/>
-    <hyperlink ref="A14" r:id="rId3"/>
-    <hyperlink ref="A13" r:id="rId4"/>
-    <hyperlink ref="A12" r:id="rId5"/>
-    <hyperlink ref="A3" r:id="rId6"/>
-    <hyperlink ref="A6" r:id="rId7"/>
-    <hyperlink ref="A7" r:id="rId8"/>
-    <hyperlink ref="A8" r:id="rId9"/>
-    <hyperlink ref="A9" r:id="rId10"/>
-    <hyperlink ref="A15" r:id="rId11"/>
-    <hyperlink ref="A16" r:id="rId12"/>
-    <hyperlink ref="A17" r:id="rId13"/>
-    <hyperlink ref="A18" r:id="rId14"/>
-    <hyperlink ref="A19" r:id="rId15"/>
-    <hyperlink ref="A20" r:id="rId16"/>
-    <hyperlink ref="A21" r:id="rId17"/>
-    <hyperlink ref="A22" r:id="rId18"/>
-    <hyperlink ref="A4" r:id="rId19" display="Расписание"/>
-    <hyperlink ref="A5" r:id="rId20"/>
-    <hyperlink ref="A23" r:id="rId21"/>
-    <hyperlink ref="A25" location="'Структура сайта'!A27" display="Ставки, сделанные вами"/>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A14" r:id="rId2"/>
+    <hyperlink ref="A17" r:id="rId3"/>
+    <hyperlink ref="A16" r:id="rId4"/>
+    <hyperlink ref="A15" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A18" r:id="rId11"/>
+    <hyperlink ref="A19" r:id="rId12"/>
+    <hyperlink ref="A20" r:id="rId13"/>
+    <hyperlink ref="A21" r:id="rId14"/>
+    <hyperlink ref="A22" r:id="rId15"/>
+    <hyperlink ref="A23" r:id="rId16"/>
+    <hyperlink ref="A24" r:id="rId17"/>
+    <hyperlink ref="A25" r:id="rId18"/>
+    <hyperlink ref="A5" r:id="rId19" display="Расписание"/>
+    <hyperlink ref="A6" r:id="rId20"/>
+    <hyperlink ref="A32" r:id="rId21"/>
+    <hyperlink ref="A34" location="'Структура сайта'!A27" display="Ставки, сделанные вами"/>
+    <hyperlink ref="A27" location="'Структура сайта'!A23" display="Контакты"/>
+    <hyperlink ref="A7" r:id="rId22"/>
+    <hyperlink ref="A8" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
-  <legacyDrawing r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -22260,7 +22392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+    <sheetView topLeftCell="A316" workbookViewId="0">
       <selection activeCell="L333" sqref="L333"/>
     </sheetView>
   </sheetViews>

--- a/_docs/структура и бизнес-процессы.xlsx
+++ b/_docs/структура и бизнес-процессы.xlsx
@@ -96,6 +96,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Отправить сообщение + файлы</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B21" authorId="0">
       <text>
         <r>
@@ -131,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="340">
   <si>
     <t>Предметы аукциона</t>
   </si>
@@ -21515,7 +21530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -21596,6 +21611,12 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21903,7 +21924,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22012,7 +22033,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="51" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -22023,7 +22044,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="51" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -22042,7 +22063,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -22053,7 +22074,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="52" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -22080,10 +22101,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>32</v>
       </c>
     </row>

--- a/_docs/структура и бизнес-процессы.xlsx
+++ b/_docs/структура и бизнес-процессы.xlsx
@@ -21924,7 +21924,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/_docs/структура и бизнес-процессы.xlsx
+++ b/_docs/структура и бизнес-процессы.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="13095"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="13095" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Структура сайта" sheetId="2" r:id="rId1"/>
     <sheet name="ЖЦ" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="609">
   <si>
     <t>Предметы аукциона</t>
   </si>
@@ -21111,6 +21112,813 @@
   </si>
   <si>
     <t>Приём антиквариата на торги</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Сравнение</t>
+  </si>
+  <si>
+    <t>Размер</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_config</t>
+  </si>
+  <si>
+    <t>MyISAM</t>
+  </si>
+  <si>
+    <t>utf8_general_ci</t>
+  </si>
+  <si>
+    <t>6.3 КБ</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_fields</t>
+  </si>
+  <si>
+    <t>4.1 КБ</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_filter</t>
+  </si>
+  <si>
+    <t>1.0 КБ</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_history</t>
+  </si>
+  <si>
+    <t>154.6 КБ</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_list</t>
+  </si>
+  <si>
+    <t>5.1 КБ</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_listcampaign</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_listmail</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_listsub</t>
+  </si>
+  <si>
+    <t>4.0 КБ</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_mail</t>
+  </si>
+  <si>
+    <t>7.9 КБ</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_queue</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_rules</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_stats</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_subscriber</t>
+  </si>
+  <si>
+    <t>34.3 КБ</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_template</t>
+  </si>
+  <si>
+    <t>19.0 КБ</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_url</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_urlclick</t>
+  </si>
+  <si>
+    <t>auc13_acymailing_userstats</t>
+  </si>
+  <si>
+    <t>auc13_assets</t>
+  </si>
+  <si>
+    <t>15.0 КБ</t>
+  </si>
+  <si>
+    <t>auc13_associations</t>
+  </si>
+  <si>
+    <t>auc13_auction2013</t>
+  </si>
+  <si>
+    <t>auc13_banners</t>
+  </si>
+  <si>
+    <t>auc13_banner_clients</t>
+  </si>
+  <si>
+    <t>auc13_banner_tracks</t>
+  </si>
+  <si>
+    <t>auc13_categories</t>
+  </si>
+  <si>
+    <t>16.3 КБ</t>
+  </si>
+  <si>
+    <t>auc13_contact_details</t>
+  </si>
+  <si>
+    <t>auc13_content</t>
+  </si>
+  <si>
+    <t>115.9 КБ</t>
+  </si>
+  <si>
+    <t>auc13_content_frontpage</t>
+  </si>
+  <si>
+    <t>auc13_content_rating</t>
+  </si>
+  <si>
+    <t>auc13_core_log_searches</t>
+  </si>
+  <si>
+    <t>auc13_csvi_available_fields</t>
+  </si>
+  <si>
+    <t>92.8 КБ</t>
+  </si>
+  <si>
+    <t>auc13_csvi_available_fields_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_currency</t>
+  </si>
+  <si>
+    <t>auc13_csvi_currency_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_icecat_index</t>
+  </si>
+  <si>
+    <t>auc13_csvi_icecat_index_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_icecat_suppliers</t>
+  </si>
+  <si>
+    <t>auc13_csvi_icecat_suppliers_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_logs</t>
+  </si>
+  <si>
+    <t>auc13_csvi_logs_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_log_details</t>
+  </si>
+  <si>
+    <t>auc13_csvi_log_details_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_related_products</t>
+  </si>
+  <si>
+    <t>auc13_csvi_related_products_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_replacements</t>
+  </si>
+  <si>
+    <t>auc13_csvi_replacements_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_settings</t>
+  </si>
+  <si>
+    <t>2.0 КБ</t>
+  </si>
+  <si>
+    <t>auc13_csvi_settings_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_template_settings</t>
+  </si>
+  <si>
+    <t>auc13_csvi_template_settings_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_template_tables</t>
+  </si>
+  <si>
+    <t>15.6 КБ</t>
+  </si>
+  <si>
+    <t>auc13_csvi_template_tables_current</t>
+  </si>
+  <si>
+    <t>auc13_csvi_template_types</t>
+  </si>
+  <si>
+    <t>8.9 КБ</t>
+  </si>
+  <si>
+    <t>auc13_csvi_template_types_current</t>
+  </si>
+  <si>
+    <t>auc13_extensions</t>
+  </si>
+  <si>
+    <t>104.2 КБ</t>
+  </si>
+  <si>
+    <t>auc13_finder_filters</t>
+  </si>
+  <si>
+    <t>auc13_finder_links</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_terms0</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_terms1</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_terms2</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_terms3</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_terms4</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_terms5</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_terms6</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_terms7</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_terms8</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_terms9</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_termsa</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_termsb</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_termsc</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_termsd</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_termse</t>
+  </si>
+  <si>
+    <t>auc13_finder_links_termsf</t>
+  </si>
+  <si>
+    <t>auc13_finder_taxonomy</t>
+  </si>
+  <si>
+    <t>7.0 КБ</t>
+  </si>
+  <si>
+    <t>auc13_finder_taxonomy_map</t>
+  </si>
+  <si>
+    <t>auc13_finder_terms</t>
+  </si>
+  <si>
+    <t>auc13_finder_terms_common</t>
+  </si>
+  <si>
+    <t>10.5 КБ</t>
+  </si>
+  <si>
+    <t>auc13_finder_tokens</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
+  </si>
+  <si>
+    <t>0 Байт</t>
+  </si>
+  <si>
+    <t>auc13_finder_tokens_aggregate</t>
+  </si>
+  <si>
+    <t>auc13_finder_types</t>
+  </si>
+  <si>
+    <t>auc13_geodesic_logins</t>
+  </si>
+  <si>
+    <t>12.3 КБ</t>
+  </si>
+  <si>
+    <t>auc13_geodesic_users</t>
+  </si>
+  <si>
+    <t>auc13_geodesic_users_backup</t>
+  </si>
+  <si>
+    <t>53.8 КБ</t>
+  </si>
+  <si>
+    <t>auc13_languages</t>
+  </si>
+  <si>
+    <t>7.1 КБ</t>
+  </si>
+  <si>
+    <t>auc13_menu</t>
+  </si>
+  <si>
+    <t>42.4 КБ</t>
+  </si>
+  <si>
+    <t>auc13_menu_types</t>
+  </si>
+  <si>
+    <t>3.1 КБ</t>
+  </si>
+  <si>
+    <t>auc13_messages</t>
+  </si>
+  <si>
+    <t>auc13_messages_cfg</t>
+  </si>
+  <si>
+    <t>auc13_modules</t>
+  </si>
+  <si>
+    <t>19.4 КБ</t>
+  </si>
+  <si>
+    <t>auc13_modules_menu</t>
+  </si>
+  <si>
+    <t>2.3 КБ</t>
+  </si>
+  <si>
+    <t>auc13_newsfeeds</t>
+  </si>
+  <si>
+    <t>auc13_overrider</t>
+  </si>
+  <si>
+    <t>auc13_redirect_links</t>
+  </si>
+  <si>
+    <t>8.0 КБ</t>
+  </si>
+  <si>
+    <t>auc13_schemas</t>
+  </si>
+  <si>
+    <t>2.1 КБ</t>
+  </si>
+  <si>
+    <t>auc13_session</t>
+  </si>
+  <si>
+    <t>14.7 КБ</t>
+  </si>
+  <si>
+    <t>auc13_template_styles</t>
+  </si>
+  <si>
+    <t>4.8 КБ</t>
+  </si>
+  <si>
+    <t>auc13_updates</t>
+  </si>
+  <si>
+    <t>28.3 КБ</t>
+  </si>
+  <si>
+    <t>auc13_update_categories</t>
+  </si>
+  <si>
+    <t>auc13_update_sites</t>
+  </si>
+  <si>
+    <t>2.7 КБ</t>
+  </si>
+  <si>
+    <t>auc13_update_sites_extensions</t>
+  </si>
+  <si>
+    <t>auc13_usergroups</t>
+  </si>
+  <si>
+    <t>2.2 КБ</t>
+  </si>
+  <si>
+    <t>auc13_users</t>
+  </si>
+  <si>
+    <t>60.3 КБ</t>
+  </si>
+  <si>
+    <t>auc13_user_notes</t>
+  </si>
+  <si>
+    <t>auc13_user_profiles</t>
+  </si>
+  <si>
+    <t>auc13_user_usergroup_map</t>
+  </si>
+  <si>
+    <t>8.2 КБ</t>
+  </si>
+  <si>
+    <t>auc13_viewlevels</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_adminmenuentries</t>
+  </si>
+  <si>
+    <t>42.6 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_calcs</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_calc_categories</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_calc_countries</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_calc_shoppergroups</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_calc_states</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_categories</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_categories_ru_ru</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_category_categories</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_category_medias</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_configs</t>
+  </si>
+  <si>
+    <t>6.8 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_countries</t>
+  </si>
+  <si>
+    <t>73.5 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_coupons</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_currencies</t>
+  </si>
+  <si>
+    <t>123.9 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_customs</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_invoices</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_manufacturercategories</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_manufacturercategories_ru_ru</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_manufacturers</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_manufacturers_ru_ru</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_manufacturer_medias</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_medias</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_migration_oldtonew_ids</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_modules</t>
+  </si>
+  <si>
+    <t>8.5 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_orders</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_orderstates</t>
+  </si>
+  <si>
+    <t>4.2 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_order_calc_rules</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_order_histories</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_order_items</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_order_userinfos</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_paymentmethods</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_paymentmethods_ru_ru</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_paymentmethod_shoppergroups</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_permgroups</t>
+  </si>
+  <si>
+    <t>4.7 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_products</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_products_ru_ru</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_product_categories</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_product_customfields</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_product_manufacturers</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_product_medias</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_product_prices</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_product_relations</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_product_shoppergroups</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_ratings</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_rating_reviews</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_rating_votes</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_shipmentmethods</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_shipmentmethods_ru_ru</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_shipmentmethod_shoppergroups</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_shoppergroups</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_states</t>
+  </si>
+  <si>
+    <t>188.4 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_userfields</t>
+  </si>
+  <si>
+    <t>5.3 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_userfield_values</t>
+  </si>
+  <si>
+    <t>31.3 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_userinfos</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_vendors</t>
+  </si>
+  <si>
+    <t>3.2 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_vendors_ru_ru</t>
+  </si>
+  <si>
+    <t>10.8 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_vendor_medias</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_vmusers</t>
+  </si>
+  <si>
+    <t>4.3 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_vmuser_shoppergroups</t>
+  </si>
+  <si>
+    <t>3.0 КБ</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_waitingusers</t>
+  </si>
+  <si>
+    <t>auc13_virtuemart_worldzones</t>
+  </si>
+  <si>
+    <t>auc13_weblinks</t>
+  </si>
+  <si>
+    <t>auc13_wf_profiles</t>
+  </si>
+  <si>
+    <t>4.4 КБ</t>
+  </si>
+  <si>
+    <t>Таблиц: 168</t>
+  </si>
+  <si>
+    <t>1.5 МБ</t>
+  </si>
+  <si>
+    <t>Records 1</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Collation</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>908 B</t>
+  </si>
+  <si>
+    <t>104 B</t>
+  </si>
+  <si>
+    <t>0 B</t>
+  </si>
+  <si>
+    <t>20 B</t>
+  </si>
+  <si>
+    <t>360 B</t>
+  </si>
+  <si>
+    <t>9 B</t>
+  </si>
+  <si>
+    <t>168 table(s)</t>
+  </si>
+  <si>
+    <t>1.7 MiB</t>
+  </si>
+  <si>
+    <t>Table Ascending</t>
+  </si>
+  <si>
+    <t>9.3 КБ</t>
+  </si>
+  <si>
+    <t>80.7 КБ</t>
+  </si>
+  <si>
+    <t>37.4 КБ</t>
+  </si>
+  <si>
+    <t>15.2 КБ</t>
+  </si>
+  <si>
+    <t>19.3 КБ</t>
+  </si>
+  <si>
+    <t>136.3 КБ</t>
+  </si>
+  <si>
+    <t>95.8 КБ</t>
+  </si>
+  <si>
+    <t>11.9 КБ</t>
+  </si>
+  <si>
+    <t>129.5 КБ</t>
+  </si>
+  <si>
+    <t>7.2 КБ</t>
+  </si>
+  <si>
+    <t>56.8 КБ</t>
+  </si>
+  <si>
+    <t>34.8 КБ</t>
+  </si>
+  <si>
+    <t>49.4 КБ</t>
+  </si>
+  <si>
+    <t>3.3 КБ</t>
+  </si>
+  <si>
+    <t>21.1 КБ</t>
+  </si>
+  <si>
+    <t>2.6 КБ</t>
+  </si>
+  <si>
+    <t>11.8 КБ</t>
+  </si>
+  <si>
+    <t>36.5 КБ</t>
+  </si>
+  <si>
+    <t>20.0 КБ</t>
+  </si>
+  <si>
+    <t>42.5 КБ</t>
+  </si>
+  <si>
+    <t>2.8 КБ</t>
+  </si>
+  <si>
+    <t>9.2 КБ</t>
+  </si>
+  <si>
+    <t>66.8 КБ</t>
+  </si>
+  <si>
+    <t>11.5 КБ</t>
+  </si>
+  <si>
+    <t>230.1 КБ</t>
+  </si>
+  <si>
+    <t>13.8 КБ</t>
+  </si>
+  <si>
+    <t>56.1 КБ</t>
   </si>
 </sst>
 </file>
@@ -21922,9 +22730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24137,4 +24945,6650 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:M170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J1" t="s">
+        <v>570</v>
+      </c>
+      <c r="K1" t="s">
+        <v>571</v>
+      </c>
+      <c r="L1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(K2&lt;&gt;E2,"Not equal","")</f>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" t="s">
+        <v>349</v>
+      </c>
+      <c r="L3" t="s">
+        <v>347</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="0">IF(K3&lt;&gt;E3,"Not equal","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J4" t="s">
+        <v>345</v>
+      </c>
+      <c r="K4" t="s">
+        <v>351</v>
+      </c>
+      <c r="L4" t="s">
+        <v>347</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5">
+        <v>318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5">
+        <v>159</v>
+      </c>
+      <c r="I5" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" t="s">
+        <v>583</v>
+      </c>
+      <c r="L5" t="s">
+        <v>573</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J6" t="s">
+        <v>345</v>
+      </c>
+      <c r="K6" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" t="s">
+        <v>347</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L8" t="s">
+        <v>347</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>344</v>
+      </c>
+      <c r="J9" t="s">
+        <v>345</v>
+      </c>
+      <c r="K9" t="s">
+        <v>359</v>
+      </c>
+      <c r="L9" t="s">
+        <v>347</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" t="s">
+        <v>360</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>344</v>
+      </c>
+      <c r="J10" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>344</v>
+      </c>
+      <c r="J11" t="s">
+        <v>345</v>
+      </c>
+      <c r="K11" t="s">
+        <v>351</v>
+      </c>
+      <c r="L11" t="s">
+        <v>347</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" t="s">
+        <v>363</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>344</v>
+      </c>
+      <c r="J12" t="s">
+        <v>345</v>
+      </c>
+      <c r="K12" t="s">
+        <v>351</v>
+      </c>
+      <c r="L12" t="s">
+        <v>347</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" t="s">
+        <v>364</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>344</v>
+      </c>
+      <c r="J13" t="s">
+        <v>345</v>
+      </c>
+      <c r="K13" t="s">
+        <v>351</v>
+      </c>
+      <c r="L13" t="s">
+        <v>347</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" t="s">
+        <v>365</v>
+      </c>
+      <c r="H14">
+        <v>160</v>
+      </c>
+      <c r="I14" t="s">
+        <v>344</v>
+      </c>
+      <c r="J14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K14" t="s">
+        <v>584</v>
+      </c>
+      <c r="L14" t="s">
+        <v>574</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>344</v>
+      </c>
+      <c r="J15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K15" t="s">
+        <v>368</v>
+      </c>
+      <c r="L15" t="s">
+        <v>347</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>344</v>
+      </c>
+      <c r="J16" t="s">
+        <v>345</v>
+      </c>
+      <c r="K16" t="s">
+        <v>359</v>
+      </c>
+      <c r="L16" t="s">
+        <v>347</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>344</v>
+      </c>
+      <c r="J17" t="s">
+        <v>345</v>
+      </c>
+      <c r="K17" t="s">
+        <v>351</v>
+      </c>
+      <c r="L17" t="s">
+        <v>347</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" t="s">
+        <v>371</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>344</v>
+      </c>
+      <c r="J18" t="s">
+        <v>345</v>
+      </c>
+      <c r="K18" t="s">
+        <v>351</v>
+      </c>
+      <c r="L18" t="s">
+        <v>347</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" t="s">
+        <v>373</v>
+      </c>
+      <c r="G19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19">
+        <v>61</v>
+      </c>
+      <c r="I19" t="s">
+        <v>344</v>
+      </c>
+      <c r="J19" t="s">
+        <v>345</v>
+      </c>
+      <c r="K19" t="s">
+        <v>585</v>
+      </c>
+      <c r="L19" t="s">
+        <v>347</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" t="s">
+        <v>374</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J20" t="s">
+        <v>345</v>
+      </c>
+      <c r="K20" t="s">
+        <v>405</v>
+      </c>
+      <c r="L20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" t="s">
+        <v>375</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>344</v>
+      </c>
+      <c r="J21" t="s">
+        <v>345</v>
+      </c>
+      <c r="K21" t="s">
+        <v>351</v>
+      </c>
+      <c r="L21" t="s">
+        <v>347</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>344</v>
+      </c>
+      <c r="J22" t="s">
+        <v>345</v>
+      </c>
+      <c r="K22" t="s">
+        <v>359</v>
+      </c>
+      <c r="L22" t="s">
+        <v>347</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" t="s">
+        <v>351</v>
+      </c>
+      <c r="G23" t="s">
+        <v>377</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>344</v>
+      </c>
+      <c r="J23" t="s">
+        <v>345</v>
+      </c>
+      <c r="K23" t="s">
+        <v>359</v>
+      </c>
+      <c r="L23" t="s">
+        <v>347</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G24" t="s">
+        <v>378</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>344</v>
+      </c>
+      <c r="J24" t="s">
+        <v>345</v>
+      </c>
+      <c r="K24" t="s">
+        <v>351</v>
+      </c>
+      <c r="L24" t="s">
+        <v>347</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>379</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E25" t="s">
+        <v>380</v>
+      </c>
+      <c r="G25" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>344</v>
+      </c>
+      <c r="J25" t="s">
+        <v>345</v>
+      </c>
+      <c r="K25" t="s">
+        <v>586</v>
+      </c>
+      <c r="L25" t="s">
+        <v>347</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G26" t="s">
+        <v>381</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>344</v>
+      </c>
+      <c r="J26" t="s">
+        <v>345</v>
+      </c>
+      <c r="K26" t="s">
+        <v>351</v>
+      </c>
+      <c r="L26" t="s">
+        <v>347</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G27" t="s">
+        <v>382</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>344</v>
+      </c>
+      <c r="J27" t="s">
+        <v>345</v>
+      </c>
+      <c r="K27" t="s">
+        <v>587</v>
+      </c>
+      <c r="L27" t="s">
+        <v>347</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>384</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" t="s">
+        <v>351</v>
+      </c>
+      <c r="G28" t="s">
+        <v>384</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>344</v>
+      </c>
+      <c r="J28" t="s">
+        <v>345</v>
+      </c>
+      <c r="K28" t="s">
+        <v>351</v>
+      </c>
+      <c r="L28" t="s">
+        <v>347</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>344</v>
+      </c>
+      <c r="D29" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" t="s">
+        <v>351</v>
+      </c>
+      <c r="G29" t="s">
+        <v>385</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>344</v>
+      </c>
+      <c r="J29" t="s">
+        <v>345</v>
+      </c>
+      <c r="K29" t="s">
+        <v>351</v>
+      </c>
+      <c r="L29" t="s">
+        <v>347</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" t="s">
+        <v>345</v>
+      </c>
+      <c r="E30" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" t="s">
+        <v>386</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>344</v>
+      </c>
+      <c r="J30" t="s">
+        <v>345</v>
+      </c>
+      <c r="K30" t="s">
+        <v>351</v>
+      </c>
+      <c r="L30" t="s">
+        <v>347</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>387</v>
+      </c>
+      <c r="B31">
+        <v>628</v>
+      </c>
+      <c r="C31" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" t="s">
+        <v>388</v>
+      </c>
+      <c r="G31" t="s">
+        <v>387</v>
+      </c>
+      <c r="H31">
+        <v>628</v>
+      </c>
+      <c r="I31" t="s">
+        <v>344</v>
+      </c>
+      <c r="J31" t="s">
+        <v>345</v>
+      </c>
+      <c r="K31" t="s">
+        <v>588</v>
+      </c>
+      <c r="L31" t="s">
+        <v>347</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G32" t="s">
+        <v>389</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>344</v>
+      </c>
+      <c r="J32" t="s">
+        <v>345</v>
+      </c>
+      <c r="K32" t="s">
+        <v>359</v>
+      </c>
+      <c r="L32" t="s">
+        <v>347</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
+      <c r="D33" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" t="s">
+        <v>351</v>
+      </c>
+      <c r="G33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>344</v>
+      </c>
+      <c r="J33" t="s">
+        <v>345</v>
+      </c>
+      <c r="K33" t="s">
+        <v>351</v>
+      </c>
+      <c r="L33" t="s">
+        <v>347</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>391</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34" t="s">
+        <v>345</v>
+      </c>
+      <c r="E34" t="s">
+        <v>351</v>
+      </c>
+      <c r="G34" t="s">
+        <v>391</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>344</v>
+      </c>
+      <c r="J34" t="s">
+        <v>345</v>
+      </c>
+      <c r="K34" t="s">
+        <v>351</v>
+      </c>
+      <c r="L34" t="s">
+        <v>347</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>392</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" t="s">
+        <v>351</v>
+      </c>
+      <c r="G35" t="s">
+        <v>392</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>344</v>
+      </c>
+      <c r="J35" t="s">
+        <v>345</v>
+      </c>
+      <c r="K35" t="s">
+        <v>351</v>
+      </c>
+      <c r="L35" t="s">
+        <v>347</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D36" t="s">
+        <v>345</v>
+      </c>
+      <c r="E36" t="s">
+        <v>351</v>
+      </c>
+      <c r="G36" t="s">
+        <v>393</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>344</v>
+      </c>
+      <c r="J36" t="s">
+        <v>345</v>
+      </c>
+      <c r="K36" t="s">
+        <v>351</v>
+      </c>
+      <c r="L36" t="s">
+        <v>347</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>394</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>344</v>
+      </c>
+      <c r="D37" t="s">
+        <v>345</v>
+      </c>
+      <c r="E37" t="s">
+        <v>351</v>
+      </c>
+      <c r="G37" t="s">
+        <v>394</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>344</v>
+      </c>
+      <c r="J37" t="s">
+        <v>345</v>
+      </c>
+      <c r="K37" t="s">
+        <v>359</v>
+      </c>
+      <c r="L37" t="s">
+        <v>347</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>395</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38" t="s">
+        <v>395</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s">
+        <v>359</v>
+      </c>
+      <c r="L38" t="s">
+        <v>347</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>396</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" t="s">
+        <v>345</v>
+      </c>
+      <c r="E39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39" t="s">
+        <v>396</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>351</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>344</v>
+      </c>
+      <c r="D40" t="s">
+        <v>345</v>
+      </c>
+      <c r="E40" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" t="s">
+        <v>397</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>344</v>
+      </c>
+      <c r="J40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s">
+        <v>351</v>
+      </c>
+      <c r="L40" t="s">
+        <v>347</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>398</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41" t="s">
+        <v>345</v>
+      </c>
+      <c r="E41" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41" t="s">
+        <v>398</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" t="s">
+        <v>351</v>
+      </c>
+      <c r="L41" t="s">
+        <v>347</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>399</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" t="s">
+        <v>345</v>
+      </c>
+      <c r="E42" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" t="s">
+        <v>399</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>344</v>
+      </c>
+      <c r="J42" t="s">
+        <v>345</v>
+      </c>
+      <c r="K42" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s">
+        <v>347</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>400</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>344</v>
+      </c>
+      <c r="D43" t="s">
+        <v>345</v>
+      </c>
+      <c r="E43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" t="s">
+        <v>400</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" t="s">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s">
+        <v>351</v>
+      </c>
+      <c r="L43" t="s">
+        <v>347</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>344</v>
+      </c>
+      <c r="D44" t="s">
+        <v>345</v>
+      </c>
+      <c r="E44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" t="s">
+        <v>401</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>344</v>
+      </c>
+      <c r="J44" t="s">
+        <v>345</v>
+      </c>
+      <c r="K44" t="s">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s">
+        <v>347</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>402</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>344</v>
+      </c>
+      <c r="D45" t="s">
+        <v>345</v>
+      </c>
+      <c r="E45" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45" t="s">
+        <v>402</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>344</v>
+      </c>
+      <c r="J45" t="s">
+        <v>345</v>
+      </c>
+      <c r="K45" t="s">
+        <v>351</v>
+      </c>
+      <c r="L45" t="s">
+        <v>347</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E46" t="s">
+        <v>351</v>
+      </c>
+      <c r="G46" t="s">
+        <v>403</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>344</v>
+      </c>
+      <c r="J46" t="s">
+        <v>345</v>
+      </c>
+      <c r="K46" t="s">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s">
+        <v>347</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>404</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>344</v>
+      </c>
+      <c r="D47" t="s">
+        <v>345</v>
+      </c>
+      <c r="E47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>404</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>344</v>
+      </c>
+      <c r="J47" t="s">
+        <v>345</v>
+      </c>
+      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="L47" t="s">
+        <v>347</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>406</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>344</v>
+      </c>
+      <c r="D48" t="s">
+        <v>345</v>
+      </c>
+      <c r="E48" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" t="s">
+        <v>406</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>344</v>
+      </c>
+      <c r="J48" t="s">
+        <v>345</v>
+      </c>
+      <c r="K48" t="s">
+        <v>351</v>
+      </c>
+      <c r="L48" t="s">
+        <v>347</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>407</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" t="s">
+        <v>345</v>
+      </c>
+      <c r="E49" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" t="s">
+        <v>407</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
+        <v>351</v>
+      </c>
+      <c r="L49" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D50" t="s">
+        <v>345</v>
+      </c>
+      <c r="E50" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" t="s">
+        <v>408</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" t="s">
+        <v>345</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>347</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>409</v>
+      </c>
+      <c r="B51">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51" t="s">
+        <v>410</v>
+      </c>
+      <c r="G51" t="s">
+        <v>409</v>
+      </c>
+      <c r="H51">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s">
+        <v>344</v>
+      </c>
+      <c r="J51" t="s">
+        <v>345</v>
+      </c>
+      <c r="K51" t="s">
+        <v>586</v>
+      </c>
+      <c r="L51" t="s">
+        <v>347</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>411</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>344</v>
+      </c>
+      <c r="D52" t="s">
+        <v>345</v>
+      </c>
+      <c r="E52" t="s">
+        <v>351</v>
+      </c>
+      <c r="G52" t="s">
+        <v>411</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>344</v>
+      </c>
+      <c r="J52" t="s">
+        <v>345</v>
+      </c>
+      <c r="K52" t="s">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s">
+        <v>347</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D53" t="s">
+        <v>345</v>
+      </c>
+      <c r="E53" t="s">
+        <v>413</v>
+      </c>
+      <c r="G53" t="s">
+        <v>412</v>
+      </c>
+      <c r="H53">
+        <v>35</v>
+      </c>
+      <c r="I53" t="s">
+        <v>344</v>
+      </c>
+      <c r="J53" t="s">
+        <v>345</v>
+      </c>
+      <c r="K53" t="s">
+        <v>589</v>
+      </c>
+      <c r="L53" t="s">
+        <v>347</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>414</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>344</v>
+      </c>
+      <c r="D54" t="s">
+        <v>345</v>
+      </c>
+      <c r="E54" t="s">
+        <v>351</v>
+      </c>
+      <c r="G54" t="s">
+        <v>414</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>344</v>
+      </c>
+      <c r="J54" t="s">
+        <v>345</v>
+      </c>
+      <c r="K54" t="s">
+        <v>359</v>
+      </c>
+      <c r="L54" t="s">
+        <v>347</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>344</v>
+      </c>
+      <c r="D55" t="s">
+        <v>345</v>
+      </c>
+      <c r="E55" t="s">
+        <v>416</v>
+      </c>
+      <c r="G55" t="s">
+        <v>415</v>
+      </c>
+      <c r="H55">
+        <v>191</v>
+      </c>
+      <c r="I55" t="s">
+        <v>344</v>
+      </c>
+      <c r="J55" t="s">
+        <v>345</v>
+      </c>
+      <c r="K55" t="s">
+        <v>590</v>
+      </c>
+      <c r="L55" t="s">
+        <v>347</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>417</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>344</v>
+      </c>
+      <c r="D56" t="s">
+        <v>345</v>
+      </c>
+      <c r="E56" t="s">
+        <v>351</v>
+      </c>
+      <c r="G56" t="s">
+        <v>417</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>344</v>
+      </c>
+      <c r="J56" t="s">
+        <v>345</v>
+      </c>
+      <c r="K56" t="s">
+        <v>351</v>
+      </c>
+      <c r="L56" t="s">
+        <v>347</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>418</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>344</v>
+      </c>
+      <c r="D57" t="s">
+        <v>345</v>
+      </c>
+      <c r="E57" t="s">
+        <v>351</v>
+      </c>
+      <c r="G57" t="s">
+        <v>418</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>344</v>
+      </c>
+      <c r="J57" t="s">
+        <v>345</v>
+      </c>
+      <c r="K57" t="s">
+        <v>359</v>
+      </c>
+      <c r="L57" t="s">
+        <v>347</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="0"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>419</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58" t="s">
+        <v>419</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>344</v>
+      </c>
+      <c r="J58" t="s">
+        <v>345</v>
+      </c>
+      <c r="K58" t="s">
+        <v>351</v>
+      </c>
+      <c r="L58" t="s">
+        <v>347</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>420</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>344</v>
+      </c>
+      <c r="D59" t="s">
+        <v>345</v>
+      </c>
+      <c r="E59" t="s">
+        <v>351</v>
+      </c>
+      <c r="G59" t="s">
+        <v>420</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>344</v>
+      </c>
+      <c r="J59" t="s">
+        <v>345</v>
+      </c>
+      <c r="K59" t="s">
+        <v>351</v>
+      </c>
+      <c r="L59" t="s">
+        <v>347</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>421</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>344</v>
+      </c>
+      <c r="D60" t="s">
+        <v>345</v>
+      </c>
+      <c r="E60" t="s">
+        <v>351</v>
+      </c>
+      <c r="G60" t="s">
+        <v>421</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>344</v>
+      </c>
+      <c r="J60" t="s">
+        <v>345</v>
+      </c>
+      <c r="K60" t="s">
+        <v>351</v>
+      </c>
+      <c r="L60" t="s">
+        <v>347</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>422</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>344</v>
+      </c>
+      <c r="D61" t="s">
+        <v>345</v>
+      </c>
+      <c r="E61" t="s">
+        <v>351</v>
+      </c>
+      <c r="G61" t="s">
+        <v>422</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>344</v>
+      </c>
+      <c r="J61" t="s">
+        <v>345</v>
+      </c>
+      <c r="K61" t="s">
+        <v>351</v>
+      </c>
+      <c r="L61" t="s">
+        <v>347</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>423</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>344</v>
+      </c>
+      <c r="D62" t="s">
+        <v>345</v>
+      </c>
+      <c r="E62" t="s">
+        <v>351</v>
+      </c>
+      <c r="G62" t="s">
+        <v>423</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>344</v>
+      </c>
+      <c r="J62" t="s">
+        <v>345</v>
+      </c>
+      <c r="K62" t="s">
+        <v>351</v>
+      </c>
+      <c r="L62" t="s">
+        <v>347</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>424</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>344</v>
+      </c>
+      <c r="D63" t="s">
+        <v>345</v>
+      </c>
+      <c r="E63" t="s">
+        <v>351</v>
+      </c>
+      <c r="G63" t="s">
+        <v>424</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>344</v>
+      </c>
+      <c r="J63" t="s">
+        <v>345</v>
+      </c>
+      <c r="K63" t="s">
+        <v>351</v>
+      </c>
+      <c r="L63" t="s">
+        <v>347</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>425</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>344</v>
+      </c>
+      <c r="D64" t="s">
+        <v>345</v>
+      </c>
+      <c r="E64" t="s">
+        <v>351</v>
+      </c>
+      <c r="G64" t="s">
+        <v>425</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>344</v>
+      </c>
+      <c r="J64" t="s">
+        <v>345</v>
+      </c>
+      <c r="K64" t="s">
+        <v>351</v>
+      </c>
+      <c r="L64" t="s">
+        <v>347</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>426</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>344</v>
+      </c>
+      <c r="D65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E65" t="s">
+        <v>351</v>
+      </c>
+      <c r="G65" t="s">
+        <v>426</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>344</v>
+      </c>
+      <c r="J65" t="s">
+        <v>345</v>
+      </c>
+      <c r="K65" t="s">
+        <v>351</v>
+      </c>
+      <c r="L65" t="s">
+        <v>347</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>427</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>344</v>
+      </c>
+      <c r="D66" t="s">
+        <v>345</v>
+      </c>
+      <c r="E66" t="s">
+        <v>351</v>
+      </c>
+      <c r="G66" t="s">
+        <v>427</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>344</v>
+      </c>
+      <c r="J66" t="s">
+        <v>345</v>
+      </c>
+      <c r="K66" t="s">
+        <v>351</v>
+      </c>
+      <c r="L66" t="s">
+        <v>347</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>428</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>344</v>
+      </c>
+      <c r="D67" t="s">
+        <v>345</v>
+      </c>
+      <c r="E67" t="s">
+        <v>351</v>
+      </c>
+      <c r="G67" t="s">
+        <v>428</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>344</v>
+      </c>
+      <c r="J67" t="s">
+        <v>345</v>
+      </c>
+      <c r="K67" t="s">
+        <v>351</v>
+      </c>
+      <c r="L67" t="s">
+        <v>347</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M130" si="1">IF(K67&lt;&gt;E67,"Not equal","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>344</v>
+      </c>
+      <c r="D68" t="s">
+        <v>345</v>
+      </c>
+      <c r="E68" t="s">
+        <v>351</v>
+      </c>
+      <c r="G68" t="s">
+        <v>429</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>344</v>
+      </c>
+      <c r="J68" t="s">
+        <v>345</v>
+      </c>
+      <c r="K68" t="s">
+        <v>351</v>
+      </c>
+      <c r="L68" t="s">
+        <v>347</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>430</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>344</v>
+      </c>
+      <c r="D69" t="s">
+        <v>345</v>
+      </c>
+      <c r="E69" t="s">
+        <v>351</v>
+      </c>
+      <c r="G69" t="s">
+        <v>430</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>344</v>
+      </c>
+      <c r="J69" t="s">
+        <v>345</v>
+      </c>
+      <c r="K69" t="s">
+        <v>351</v>
+      </c>
+      <c r="L69" t="s">
+        <v>347</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>344</v>
+      </c>
+      <c r="D70" t="s">
+        <v>345</v>
+      </c>
+      <c r="E70" t="s">
+        <v>351</v>
+      </c>
+      <c r="G70" t="s">
+        <v>431</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>344</v>
+      </c>
+      <c r="J70" t="s">
+        <v>345</v>
+      </c>
+      <c r="K70" t="s">
+        <v>351</v>
+      </c>
+      <c r="L70" t="s">
+        <v>347</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>432</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>344</v>
+      </c>
+      <c r="D71" t="s">
+        <v>345</v>
+      </c>
+      <c r="E71" t="s">
+        <v>351</v>
+      </c>
+      <c r="G71" t="s">
+        <v>432</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>344</v>
+      </c>
+      <c r="J71" t="s">
+        <v>345</v>
+      </c>
+      <c r="K71" t="s">
+        <v>351</v>
+      </c>
+      <c r="L71" t="s">
+        <v>347</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>433</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>344</v>
+      </c>
+      <c r="D72" t="s">
+        <v>345</v>
+      </c>
+      <c r="E72" t="s">
+        <v>351</v>
+      </c>
+      <c r="G72" t="s">
+        <v>433</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>344</v>
+      </c>
+      <c r="J72" t="s">
+        <v>345</v>
+      </c>
+      <c r="K72" t="s">
+        <v>351</v>
+      </c>
+      <c r="L72" t="s">
+        <v>347</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>434</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" t="s">
+        <v>345</v>
+      </c>
+      <c r="E73" t="s">
+        <v>351</v>
+      </c>
+      <c r="G73" t="s">
+        <v>434</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>344</v>
+      </c>
+      <c r="J73" t="s">
+        <v>345</v>
+      </c>
+      <c r="K73" t="s">
+        <v>351</v>
+      </c>
+      <c r="L73" t="s">
+        <v>347</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>435</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D74" t="s">
+        <v>345</v>
+      </c>
+      <c r="E74" t="s">
+        <v>436</v>
+      </c>
+      <c r="G74" t="s">
+        <v>435</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>344</v>
+      </c>
+      <c r="J74" t="s">
+        <v>345</v>
+      </c>
+      <c r="K74" t="s">
+        <v>436</v>
+      </c>
+      <c r="L74" t="s">
+        <v>347</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>437</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>344</v>
+      </c>
+      <c r="D75" t="s">
+        <v>345</v>
+      </c>
+      <c r="E75" t="s">
+        <v>351</v>
+      </c>
+      <c r="G75" t="s">
+        <v>437</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>344</v>
+      </c>
+      <c r="J75" t="s">
+        <v>345</v>
+      </c>
+      <c r="K75" t="s">
+        <v>351</v>
+      </c>
+      <c r="L75" t="s">
+        <v>347</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>438</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>344</v>
+      </c>
+      <c r="D76" t="s">
+        <v>345</v>
+      </c>
+      <c r="E76" t="s">
+        <v>351</v>
+      </c>
+      <c r="G76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>344</v>
+      </c>
+      <c r="J76" t="s">
+        <v>345</v>
+      </c>
+      <c r="K76" t="s">
+        <v>351</v>
+      </c>
+      <c r="L76" t="s">
+        <v>347</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>439</v>
+      </c>
+      <c r="B77">
+        <v>230</v>
+      </c>
+      <c r="C77" t="s">
+        <v>344</v>
+      </c>
+      <c r="D77" t="s">
+        <v>345</v>
+      </c>
+      <c r="E77" t="s">
+        <v>440</v>
+      </c>
+      <c r="G77" t="s">
+        <v>439</v>
+      </c>
+      <c r="H77">
+        <v>115</v>
+      </c>
+      <c r="I77" t="s">
+        <v>344</v>
+      </c>
+      <c r="J77" t="s">
+        <v>345</v>
+      </c>
+      <c r="K77" t="s">
+        <v>591</v>
+      </c>
+      <c r="L77" t="s">
+        <v>347</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>441</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>442</v>
+      </c>
+      <c r="D78" t="s">
+        <v>345</v>
+      </c>
+      <c r="E78" t="s">
+        <v>443</v>
+      </c>
+      <c r="G78" t="s">
+        <v>441</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>442</v>
+      </c>
+      <c r="J78" t="s">
+        <v>345</v>
+      </c>
+      <c r="K78" t="s">
+        <v>575</v>
+      </c>
+      <c r="L78" t="s">
+        <v>347</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>444</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>442</v>
+      </c>
+      <c r="D79" t="s">
+        <v>345</v>
+      </c>
+      <c r="E79" t="s">
+        <v>443</v>
+      </c>
+      <c r="G79" t="s">
+        <v>444</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>442</v>
+      </c>
+      <c r="J79" t="s">
+        <v>345</v>
+      </c>
+      <c r="K79" t="s">
+        <v>575</v>
+      </c>
+      <c r="L79" t="s">
+        <v>347</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>445</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>344</v>
+      </c>
+      <c r="D80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E80" t="s">
+        <v>351</v>
+      </c>
+      <c r="G80" t="s">
+        <v>445</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>344</v>
+      </c>
+      <c r="J80" t="s">
+        <v>345</v>
+      </c>
+      <c r="K80" t="s">
+        <v>405</v>
+      </c>
+      <c r="L80" t="s">
+        <v>347</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>446</v>
+      </c>
+      <c r="B81">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
+        <v>344</v>
+      </c>
+      <c r="D81" t="s">
+        <v>345</v>
+      </c>
+      <c r="E81" t="s">
+        <v>447</v>
+      </c>
+      <c r="G81" t="s">
+        <v>446</v>
+      </c>
+      <c r="H81">
+        <v>159</v>
+      </c>
+      <c r="I81" t="s">
+        <v>344</v>
+      </c>
+      <c r="J81" t="s">
+        <v>345</v>
+      </c>
+      <c r="K81" t="s">
+        <v>447</v>
+      </c>
+      <c r="L81" t="s">
+        <v>347</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>448</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>344</v>
+      </c>
+      <c r="D82" t="s">
+        <v>345</v>
+      </c>
+      <c r="E82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G82" t="s">
+        <v>448</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>344</v>
+      </c>
+      <c r="J82" t="s">
+        <v>345</v>
+      </c>
+      <c r="K82" t="s">
+        <v>592</v>
+      </c>
+      <c r="L82" t="s">
+        <v>593</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>449</v>
+      </c>
+      <c r="B83">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>344</v>
+      </c>
+      <c r="D83" t="s">
+        <v>345</v>
+      </c>
+      <c r="E83" t="s">
+        <v>450</v>
+      </c>
+      <c r="G83" t="s">
+        <v>449</v>
+      </c>
+      <c r="H83">
+        <v>159</v>
+      </c>
+      <c r="I83" t="s">
+        <v>344</v>
+      </c>
+      <c r="J83" t="s">
+        <v>345</v>
+      </c>
+      <c r="K83" t="s">
+        <v>592</v>
+      </c>
+      <c r="L83" t="s">
+        <v>347</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>451</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>344</v>
+      </c>
+      <c r="D84" t="s">
+        <v>345</v>
+      </c>
+      <c r="E84" t="s">
+        <v>452</v>
+      </c>
+      <c r="G84" t="s">
+        <v>451</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>344</v>
+      </c>
+      <c r="J84" t="s">
+        <v>345</v>
+      </c>
+      <c r="K84" t="s">
+        <v>452</v>
+      </c>
+      <c r="L84" t="s">
+        <v>347</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>453</v>
+      </c>
+      <c r="B85">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E85" t="s">
+        <v>454</v>
+      </c>
+      <c r="G85" t="s">
+        <v>453</v>
+      </c>
+      <c r="H85">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s">
+        <v>344</v>
+      </c>
+      <c r="J85" t="s">
+        <v>345</v>
+      </c>
+      <c r="K85" t="s">
+        <v>594</v>
+      </c>
+      <c r="L85" t="s">
+        <v>347</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>455</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>344</v>
+      </c>
+      <c r="D86" t="s">
+        <v>345</v>
+      </c>
+      <c r="E86" t="s">
+        <v>456</v>
+      </c>
+      <c r="G86" t="s">
+        <v>455</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>344</v>
+      </c>
+      <c r="J86" t="s">
+        <v>345</v>
+      </c>
+      <c r="K86" t="s">
+        <v>595</v>
+      </c>
+      <c r="L86" t="s">
+        <v>347</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>457</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>344</v>
+      </c>
+      <c r="D87" t="s">
+        <v>345</v>
+      </c>
+      <c r="E87" t="s">
+        <v>351</v>
+      </c>
+      <c r="G87" t="s">
+        <v>457</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>344</v>
+      </c>
+      <c r="J87" t="s">
+        <v>345</v>
+      </c>
+      <c r="K87" t="s">
+        <v>351</v>
+      </c>
+      <c r="L87" t="s">
+        <v>347</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>458</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" t="s">
+        <v>345</v>
+      </c>
+      <c r="E88" t="s">
+        <v>351</v>
+      </c>
+      <c r="G88" t="s">
+        <v>458</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>344</v>
+      </c>
+      <c r="J88" t="s">
+        <v>345</v>
+      </c>
+      <c r="K88" t="s">
+        <v>405</v>
+      </c>
+      <c r="L88" t="s">
+        <v>347</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>459</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89" t="s">
+        <v>344</v>
+      </c>
+      <c r="D89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E89" t="s">
+        <v>460</v>
+      </c>
+      <c r="G89" t="s">
+        <v>459</v>
+      </c>
+      <c r="H89">
+        <v>32</v>
+      </c>
+      <c r="I89" t="s">
+        <v>344</v>
+      </c>
+      <c r="J89" t="s">
+        <v>345</v>
+      </c>
+      <c r="K89" t="s">
+        <v>596</v>
+      </c>
+      <c r="L89" t="s">
+        <v>347</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>461</v>
+      </c>
+      <c r="B90">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>344</v>
+      </c>
+      <c r="D90" t="s">
+        <v>345</v>
+      </c>
+      <c r="E90" t="s">
+        <v>462</v>
+      </c>
+      <c r="G90" t="s">
+        <v>461</v>
+      </c>
+      <c r="H90">
+        <v>63</v>
+      </c>
+      <c r="I90" t="s">
+        <v>344</v>
+      </c>
+      <c r="J90" t="s">
+        <v>345</v>
+      </c>
+      <c r="K90" t="s">
+        <v>597</v>
+      </c>
+      <c r="L90" t="s">
+        <v>347</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>463</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>344</v>
+      </c>
+      <c r="D91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E91" t="s">
+        <v>351</v>
+      </c>
+      <c r="G91" t="s">
+        <v>463</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>344</v>
+      </c>
+      <c r="J91" t="s">
+        <v>345</v>
+      </c>
+      <c r="K91" t="s">
+        <v>351</v>
+      </c>
+      <c r="L91" t="s">
+        <v>347</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>464</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>344</v>
+      </c>
+      <c r="D92" t="s">
+        <v>345</v>
+      </c>
+      <c r="E92" t="s">
+        <v>351</v>
+      </c>
+      <c r="G92" t="s">
+        <v>464</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>344</v>
+      </c>
+      <c r="J92" t="s">
+        <v>345</v>
+      </c>
+      <c r="K92" t="s">
+        <v>351</v>
+      </c>
+      <c r="L92" t="s">
+        <v>347</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>465</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>344</v>
+      </c>
+      <c r="D93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E93" t="s">
+        <v>466</v>
+      </c>
+      <c r="G93" t="s">
+        <v>465</v>
+      </c>
+      <c r="H93">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s">
+        <v>344</v>
+      </c>
+      <c r="J93" t="s">
+        <v>345</v>
+      </c>
+      <c r="K93" t="s">
+        <v>598</v>
+      </c>
+      <c r="L93" t="s">
+        <v>347</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>467</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>344</v>
+      </c>
+      <c r="D94" t="s">
+        <v>345</v>
+      </c>
+      <c r="E94" t="s">
+        <v>468</v>
+      </c>
+      <c r="G94" t="s">
+        <v>467</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94" t="s">
+        <v>344</v>
+      </c>
+      <c r="J94" t="s">
+        <v>345</v>
+      </c>
+      <c r="K94" t="s">
+        <v>468</v>
+      </c>
+      <c r="L94" t="s">
+        <v>576</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>469</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>344</v>
+      </c>
+      <c r="D95" t="s">
+        <v>345</v>
+      </c>
+      <c r="E95" t="s">
+        <v>470</v>
+      </c>
+      <c r="G95" t="s">
+        <v>469</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>344</v>
+      </c>
+      <c r="J95" t="s">
+        <v>345</v>
+      </c>
+      <c r="K95" t="s">
+        <v>599</v>
+      </c>
+      <c r="L95" t="s">
+        <v>600</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>471</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>344</v>
+      </c>
+      <c r="D96" t="s">
+        <v>345</v>
+      </c>
+      <c r="E96" t="s">
+        <v>472</v>
+      </c>
+      <c r="G96" t="s">
+        <v>471</v>
+      </c>
+      <c r="H96">
+        <v>7</v>
+      </c>
+      <c r="I96" t="s">
+        <v>344</v>
+      </c>
+      <c r="J96" t="s">
+        <v>345</v>
+      </c>
+      <c r="K96" t="s">
+        <v>472</v>
+      </c>
+      <c r="L96" t="s">
+        <v>347</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>473</v>
+      </c>
+      <c r="B97">
+        <v>208</v>
+      </c>
+      <c r="C97" t="s">
+        <v>344</v>
+      </c>
+      <c r="D97" t="s">
+        <v>345</v>
+      </c>
+      <c r="E97" t="s">
+        <v>474</v>
+      </c>
+      <c r="G97" t="s">
+        <v>473</v>
+      </c>
+      <c r="H97">
+        <v>326</v>
+      </c>
+      <c r="I97" t="s">
+        <v>344</v>
+      </c>
+      <c r="J97" t="s">
+        <v>345</v>
+      </c>
+      <c r="K97" t="s">
+        <v>601</v>
+      </c>
+      <c r="L97" t="s">
+        <v>347</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>475</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>344</v>
+      </c>
+      <c r="D98" t="s">
+        <v>345</v>
+      </c>
+      <c r="E98" t="s">
+        <v>351</v>
+      </c>
+      <c r="G98" t="s">
+        <v>475</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>344</v>
+      </c>
+      <c r="J98" t="s">
+        <v>345</v>
+      </c>
+      <c r="K98" t="s">
+        <v>351</v>
+      </c>
+      <c r="L98" t="s">
+        <v>347</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>476</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" t="s">
+        <v>345</v>
+      </c>
+      <c r="E99" t="s">
+        <v>477</v>
+      </c>
+      <c r="G99" t="s">
+        <v>476</v>
+      </c>
+      <c r="H99">
+        <v>7</v>
+      </c>
+      <c r="I99" t="s">
+        <v>344</v>
+      </c>
+      <c r="J99" t="s">
+        <v>345</v>
+      </c>
+      <c r="K99" t="s">
+        <v>602</v>
+      </c>
+      <c r="L99" t="s">
+        <v>347</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>478</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>344</v>
+      </c>
+      <c r="D100" t="s">
+        <v>345</v>
+      </c>
+      <c r="E100" t="s">
+        <v>468</v>
+      </c>
+      <c r="G100" t="s">
+        <v>478</v>
+      </c>
+      <c r="H100">
+        <v>9</v>
+      </c>
+      <c r="I100" t="s">
+        <v>344</v>
+      </c>
+      <c r="J100" t="s">
+        <v>345</v>
+      </c>
+      <c r="K100" t="s">
+        <v>468</v>
+      </c>
+      <c r="L100" t="s">
+        <v>347</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>479</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>344</v>
+      </c>
+      <c r="D101" t="s">
+        <v>345</v>
+      </c>
+      <c r="E101" t="s">
+        <v>480</v>
+      </c>
+      <c r="G101" t="s">
+        <v>479</v>
+      </c>
+      <c r="H101">
+        <v>8</v>
+      </c>
+      <c r="I101" t="s">
+        <v>344</v>
+      </c>
+      <c r="J101" t="s">
+        <v>345</v>
+      </c>
+      <c r="K101" t="s">
+        <v>603</v>
+      </c>
+      <c r="L101" t="s">
+        <v>347</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>481</v>
+      </c>
+      <c r="B102">
+        <v>160</v>
+      </c>
+      <c r="C102" t="s">
+        <v>344</v>
+      </c>
+      <c r="D102" t="s">
+        <v>345</v>
+      </c>
+      <c r="E102" t="s">
+        <v>482</v>
+      </c>
+      <c r="G102" t="s">
+        <v>481</v>
+      </c>
+      <c r="H102">
+        <v>160</v>
+      </c>
+      <c r="I102" t="s">
+        <v>344</v>
+      </c>
+      <c r="J102" t="s">
+        <v>345</v>
+      </c>
+      <c r="K102" t="s">
+        <v>604</v>
+      </c>
+      <c r="L102" t="s">
+        <v>577</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>483</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>344</v>
+      </c>
+      <c r="D103" t="s">
+        <v>345</v>
+      </c>
+      <c r="E103" t="s">
+        <v>351</v>
+      </c>
+      <c r="G103" t="s">
+        <v>483</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>344</v>
+      </c>
+      <c r="J103" t="s">
+        <v>345</v>
+      </c>
+      <c r="K103" t="s">
+        <v>351</v>
+      </c>
+      <c r="L103" t="s">
+        <v>347</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>484</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>344</v>
+      </c>
+      <c r="D104" t="s">
+        <v>345</v>
+      </c>
+      <c r="E104" t="s">
+        <v>351</v>
+      </c>
+      <c r="G104" t="s">
+        <v>484</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>344</v>
+      </c>
+      <c r="J104" t="s">
+        <v>345</v>
+      </c>
+      <c r="K104" t="s">
+        <v>405</v>
+      </c>
+      <c r="L104" t="s">
+        <v>347</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>485</v>
+      </c>
+      <c r="B105">
+        <v>254</v>
+      </c>
+      <c r="C105" t="s">
+        <v>344</v>
+      </c>
+      <c r="D105" t="s">
+        <v>345</v>
+      </c>
+      <c r="E105" t="s">
+        <v>486</v>
+      </c>
+      <c r="G105" t="s">
+        <v>485</v>
+      </c>
+      <c r="H105">
+        <v>254</v>
+      </c>
+      <c r="I105" t="s">
+        <v>344</v>
+      </c>
+      <c r="J105" t="s">
+        <v>345</v>
+      </c>
+      <c r="K105" t="s">
+        <v>486</v>
+      </c>
+      <c r="L105" t="s">
+        <v>578</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>487</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>344</v>
+      </c>
+      <c r="D106" t="s">
+        <v>345</v>
+      </c>
+      <c r="E106" t="s">
+        <v>349</v>
+      </c>
+      <c r="G106" t="s">
+        <v>487</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106" t="s">
+        <v>344</v>
+      </c>
+      <c r="J106" t="s">
+        <v>345</v>
+      </c>
+      <c r="K106" t="s">
+        <v>355</v>
+      </c>
+      <c r="L106" t="s">
+        <v>347</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>488</v>
+      </c>
+      <c r="B107">
+        <v>28</v>
+      </c>
+      <c r="C107" t="s">
+        <v>344</v>
+      </c>
+      <c r="D107" t="s">
+        <v>345</v>
+      </c>
+      <c r="E107" t="s">
+        <v>489</v>
+      </c>
+      <c r="G107" t="s">
+        <v>488</v>
+      </c>
+      <c r="H107">
+        <v>28</v>
+      </c>
+      <c r="I107" t="s">
+        <v>344</v>
+      </c>
+      <c r="J107" t="s">
+        <v>345</v>
+      </c>
+      <c r="K107" t="s">
+        <v>489</v>
+      </c>
+      <c r="L107" t="s">
+        <v>347</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>490</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>344</v>
+      </c>
+      <c r="D108" t="s">
+        <v>345</v>
+      </c>
+      <c r="E108" t="s">
+        <v>351</v>
+      </c>
+      <c r="G108" t="s">
+        <v>490</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>344</v>
+      </c>
+      <c r="J108" t="s">
+        <v>345</v>
+      </c>
+      <c r="K108" t="s">
+        <v>351</v>
+      </c>
+      <c r="L108" t="s">
+        <v>347</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>491</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>344</v>
+      </c>
+      <c r="D109" t="s">
+        <v>345</v>
+      </c>
+      <c r="E109" t="s">
+        <v>351</v>
+      </c>
+      <c r="G109" t="s">
+        <v>491</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>344</v>
+      </c>
+      <c r="J109" t="s">
+        <v>345</v>
+      </c>
+      <c r="K109" t="s">
+        <v>351</v>
+      </c>
+      <c r="L109" t="s">
+        <v>347</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>492</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>344</v>
+      </c>
+      <c r="D110" t="s">
+        <v>345</v>
+      </c>
+      <c r="E110" t="s">
+        <v>351</v>
+      </c>
+      <c r="G110" t="s">
+        <v>492</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>344</v>
+      </c>
+      <c r="J110" t="s">
+        <v>345</v>
+      </c>
+      <c r="K110" t="s">
+        <v>351</v>
+      </c>
+      <c r="L110" t="s">
+        <v>347</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>493</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>344</v>
+      </c>
+      <c r="D111" t="s">
+        <v>345</v>
+      </c>
+      <c r="E111" t="s">
+        <v>351</v>
+      </c>
+      <c r="G111" t="s">
+        <v>493</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>344</v>
+      </c>
+      <c r="J111" t="s">
+        <v>345</v>
+      </c>
+      <c r="K111" t="s">
+        <v>351</v>
+      </c>
+      <c r="L111" t="s">
+        <v>347</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>494</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>344</v>
+      </c>
+      <c r="D112" t="s">
+        <v>345</v>
+      </c>
+      <c r="E112" t="s">
+        <v>351</v>
+      </c>
+      <c r="G112" t="s">
+        <v>494</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>344</v>
+      </c>
+      <c r="J112" t="s">
+        <v>345</v>
+      </c>
+      <c r="K112" t="s">
+        <v>351</v>
+      </c>
+      <c r="L112" t="s">
+        <v>347</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>495</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" t="s">
+        <v>345</v>
+      </c>
+      <c r="E113" t="s">
+        <v>351</v>
+      </c>
+      <c r="G113" t="s">
+        <v>495</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>344</v>
+      </c>
+      <c r="J113" t="s">
+        <v>345</v>
+      </c>
+      <c r="K113" t="s">
+        <v>351</v>
+      </c>
+      <c r="L113" t="s">
+        <v>347</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>496</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>344</v>
+      </c>
+      <c r="D114" t="s">
+        <v>345</v>
+      </c>
+      <c r="E114" t="s">
+        <v>351</v>
+      </c>
+      <c r="G114" t="s">
+        <v>496</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>344</v>
+      </c>
+      <c r="J114" t="s">
+        <v>345</v>
+      </c>
+      <c r="K114" t="s">
+        <v>359</v>
+      </c>
+      <c r="L114" t="s">
+        <v>347</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>497</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>344</v>
+      </c>
+      <c r="D115" t="s">
+        <v>345</v>
+      </c>
+      <c r="E115" t="s">
+        <v>351</v>
+      </c>
+      <c r="G115" t="s">
+        <v>497</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>344</v>
+      </c>
+      <c r="J115" t="s">
+        <v>345</v>
+      </c>
+      <c r="K115" t="s">
+        <v>351</v>
+      </c>
+      <c r="L115" t="s">
+        <v>347</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>498</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116" t="s">
+        <v>345</v>
+      </c>
+      <c r="E116" t="s">
+        <v>351</v>
+      </c>
+      <c r="G116" t="s">
+        <v>498</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>344</v>
+      </c>
+      <c r="J116" t="s">
+        <v>345</v>
+      </c>
+      <c r="K116" t="s">
+        <v>351</v>
+      </c>
+      <c r="L116" t="s">
+        <v>347</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>499</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>344</v>
+      </c>
+      <c r="D117" t="s">
+        <v>345</v>
+      </c>
+      <c r="E117" t="s">
+        <v>500</v>
+      </c>
+      <c r="G117" t="s">
+        <v>499</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>344</v>
+      </c>
+      <c r="J117" t="s">
+        <v>345</v>
+      </c>
+      <c r="K117" t="s">
+        <v>500</v>
+      </c>
+      <c r="L117" t="s">
+        <v>347</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>501</v>
+      </c>
+      <c r="B118">
+        <v>246</v>
+      </c>
+      <c r="C118" t="s">
+        <v>344</v>
+      </c>
+      <c r="D118" t="s">
+        <v>345</v>
+      </c>
+      <c r="E118" t="s">
+        <v>502</v>
+      </c>
+      <c r="G118" t="s">
+        <v>501</v>
+      </c>
+      <c r="H118">
+        <v>246</v>
+      </c>
+      <c r="I118" t="s">
+        <v>344</v>
+      </c>
+      <c r="J118" t="s">
+        <v>345</v>
+      </c>
+      <c r="K118" t="s">
+        <v>502</v>
+      </c>
+      <c r="L118" t="s">
+        <v>347</v>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>503</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>344</v>
+      </c>
+      <c r="D119" t="s">
+        <v>345</v>
+      </c>
+      <c r="E119" t="s">
+        <v>351</v>
+      </c>
+      <c r="G119" t="s">
+        <v>503</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>344</v>
+      </c>
+      <c r="J119" t="s">
+        <v>345</v>
+      </c>
+      <c r="K119" t="s">
+        <v>351</v>
+      </c>
+      <c r="L119" t="s">
+        <v>347</v>
+      </c>
+      <c r="M119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>504</v>
+      </c>
+      <c r="B120">
+        <v>163</v>
+      </c>
+      <c r="C120" t="s">
+        <v>344</v>
+      </c>
+      <c r="D120" t="s">
+        <v>345</v>
+      </c>
+      <c r="E120" t="s">
+        <v>505</v>
+      </c>
+      <c r="G120" t="s">
+        <v>504</v>
+      </c>
+      <c r="H120">
+        <v>163</v>
+      </c>
+      <c r="I120" t="s">
+        <v>344</v>
+      </c>
+      <c r="J120" t="s">
+        <v>345</v>
+      </c>
+      <c r="K120" t="s">
+        <v>505</v>
+      </c>
+      <c r="L120" t="s">
+        <v>347</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>506</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>344</v>
+      </c>
+      <c r="D121" t="s">
+        <v>345</v>
+      </c>
+      <c r="E121" t="s">
+        <v>346</v>
+      </c>
+      <c r="G121" t="s">
+        <v>506</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>344</v>
+      </c>
+      <c r="J121" t="s">
+        <v>345</v>
+      </c>
+      <c r="K121" t="s">
+        <v>346</v>
+      </c>
+      <c r="L121" t="s">
+        <v>347</v>
+      </c>
+      <c r="M121" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>507</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>344</v>
+      </c>
+      <c r="D122" t="s">
+        <v>345</v>
+      </c>
+      <c r="E122" t="s">
+        <v>351</v>
+      </c>
+      <c r="G122" t="s">
+        <v>507</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>344</v>
+      </c>
+      <c r="J122" t="s">
+        <v>345</v>
+      </c>
+      <c r="K122" t="s">
+        <v>351</v>
+      </c>
+      <c r="L122" t="s">
+        <v>347</v>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>508</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>344</v>
+      </c>
+      <c r="D123" t="s">
+        <v>345</v>
+      </c>
+      <c r="E123" t="s">
+        <v>351</v>
+      </c>
+      <c r="G123" t="s">
+        <v>508</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>344</v>
+      </c>
+      <c r="J123" t="s">
+        <v>345</v>
+      </c>
+      <c r="K123" t="s">
+        <v>351</v>
+      </c>
+      <c r="L123" t="s">
+        <v>347</v>
+      </c>
+      <c r="M123" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>509</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>344</v>
+      </c>
+      <c r="D124" t="s">
+        <v>345</v>
+      </c>
+      <c r="E124" t="s">
+        <v>351</v>
+      </c>
+      <c r="G124" t="s">
+        <v>509</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>344</v>
+      </c>
+      <c r="J124" t="s">
+        <v>345</v>
+      </c>
+      <c r="K124" t="s">
+        <v>359</v>
+      </c>
+      <c r="L124" t="s">
+        <v>347</v>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>510</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>344</v>
+      </c>
+      <c r="D125" t="s">
+        <v>345</v>
+      </c>
+      <c r="E125" t="s">
+        <v>351</v>
+      </c>
+      <c r="G125" t="s">
+        <v>510</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>344</v>
+      </c>
+      <c r="J125" t="s">
+        <v>345</v>
+      </c>
+      <c r="K125" t="s">
+        <v>351</v>
+      </c>
+      <c r="L125" t="s">
+        <v>347</v>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>511</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>344</v>
+      </c>
+      <c r="D126" t="s">
+        <v>345</v>
+      </c>
+      <c r="E126" t="s">
+        <v>351</v>
+      </c>
+      <c r="G126" t="s">
+        <v>511</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>344</v>
+      </c>
+      <c r="J126" t="s">
+        <v>345</v>
+      </c>
+      <c r="K126" t="s">
+        <v>359</v>
+      </c>
+      <c r="L126" t="s">
+        <v>347</v>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>512</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>344</v>
+      </c>
+      <c r="D127" t="s">
+        <v>345</v>
+      </c>
+      <c r="E127" t="s">
+        <v>351</v>
+      </c>
+      <c r="G127" t="s">
+        <v>512</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>344</v>
+      </c>
+      <c r="J127" t="s">
+        <v>345</v>
+      </c>
+      <c r="K127" t="s">
+        <v>351</v>
+      </c>
+      <c r="L127" t="s">
+        <v>347</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>513</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>344</v>
+      </c>
+      <c r="D128" t="s">
+        <v>345</v>
+      </c>
+      <c r="E128" t="s">
+        <v>351</v>
+      </c>
+      <c r="G128" t="s">
+        <v>513</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>344</v>
+      </c>
+      <c r="J128" t="s">
+        <v>345</v>
+      </c>
+      <c r="K128" t="s">
+        <v>351</v>
+      </c>
+      <c r="L128" t="s">
+        <v>347</v>
+      </c>
+      <c r="M128" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>514</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>344</v>
+      </c>
+      <c r="D129" t="s">
+        <v>345</v>
+      </c>
+      <c r="E129" t="s">
+        <v>351</v>
+      </c>
+      <c r="G129" t="s">
+        <v>514</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>344</v>
+      </c>
+      <c r="J129" t="s">
+        <v>345</v>
+      </c>
+      <c r="K129" t="s">
+        <v>351</v>
+      </c>
+      <c r="L129" t="s">
+        <v>347</v>
+      </c>
+      <c r="M129" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>515</v>
+      </c>
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>344</v>
+      </c>
+      <c r="D130" t="s">
+        <v>345</v>
+      </c>
+      <c r="E130" t="s">
+        <v>516</v>
+      </c>
+      <c r="G130" t="s">
+        <v>515</v>
+      </c>
+      <c r="H130">
+        <v>12</v>
+      </c>
+      <c r="I130" t="s">
+        <v>344</v>
+      </c>
+      <c r="J130" t="s">
+        <v>345</v>
+      </c>
+      <c r="K130" t="s">
+        <v>605</v>
+      </c>
+      <c r="L130" t="s">
+        <v>347</v>
+      </c>
+      <c r="M130" t="str">
+        <f t="shared" si="1"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>517</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>344</v>
+      </c>
+      <c r="D131" t="s">
+        <v>345</v>
+      </c>
+      <c r="E131" t="s">
+        <v>351</v>
+      </c>
+      <c r="G131" t="s">
+        <v>517</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>344</v>
+      </c>
+      <c r="J131" t="s">
+        <v>345</v>
+      </c>
+      <c r="K131" t="s">
+        <v>351</v>
+      </c>
+      <c r="L131" t="s">
+        <v>347</v>
+      </c>
+      <c r="M131" t="str">
+        <f t="shared" ref="M131:M169" si="2">IF(K131&lt;&gt;E131,"Not equal","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>518</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>344</v>
+      </c>
+      <c r="D132" t="s">
+        <v>345</v>
+      </c>
+      <c r="E132" t="s">
+        <v>519</v>
+      </c>
+      <c r="G132" t="s">
+        <v>518</v>
+      </c>
+      <c r="H132">
+        <v>6</v>
+      </c>
+      <c r="I132" t="s">
+        <v>344</v>
+      </c>
+      <c r="J132" t="s">
+        <v>345</v>
+      </c>
+      <c r="K132" t="s">
+        <v>519</v>
+      </c>
+      <c r="L132" t="s">
+        <v>347</v>
+      </c>
+      <c r="M132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>520</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>344</v>
+      </c>
+      <c r="D133" t="s">
+        <v>345</v>
+      </c>
+      <c r="E133" t="s">
+        <v>351</v>
+      </c>
+      <c r="G133" t="s">
+        <v>520</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>344</v>
+      </c>
+      <c r="J133" t="s">
+        <v>345</v>
+      </c>
+      <c r="K133" t="s">
+        <v>351</v>
+      </c>
+      <c r="L133" t="s">
+        <v>347</v>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>521</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>344</v>
+      </c>
+      <c r="D134" t="s">
+        <v>345</v>
+      </c>
+      <c r="E134" t="s">
+        <v>351</v>
+      </c>
+      <c r="G134" t="s">
+        <v>521</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>344</v>
+      </c>
+      <c r="J134" t="s">
+        <v>345</v>
+      </c>
+      <c r="K134" t="s">
+        <v>351</v>
+      </c>
+      <c r="L134" t="s">
+        <v>347</v>
+      </c>
+      <c r="M134" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>522</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>344</v>
+      </c>
+      <c r="D135" t="s">
+        <v>345</v>
+      </c>
+      <c r="E135" t="s">
+        <v>351</v>
+      </c>
+      <c r="G135" t="s">
+        <v>522</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>344</v>
+      </c>
+      <c r="J135" t="s">
+        <v>345</v>
+      </c>
+      <c r="K135" t="s">
+        <v>351</v>
+      </c>
+      <c r="L135" t="s">
+        <v>347</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>523</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>344</v>
+      </c>
+      <c r="D136" t="s">
+        <v>345</v>
+      </c>
+      <c r="E136" t="s">
+        <v>351</v>
+      </c>
+      <c r="G136" t="s">
+        <v>523</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>344</v>
+      </c>
+      <c r="J136" t="s">
+        <v>345</v>
+      </c>
+      <c r="K136" t="s">
+        <v>351</v>
+      </c>
+      <c r="L136" t="s">
+        <v>347</v>
+      </c>
+      <c r="M136" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>524</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>344</v>
+      </c>
+      <c r="D137" t="s">
+        <v>345</v>
+      </c>
+      <c r="E137" t="s">
+        <v>351</v>
+      </c>
+      <c r="G137" t="s">
+        <v>524</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>344</v>
+      </c>
+      <c r="J137" t="s">
+        <v>345</v>
+      </c>
+      <c r="K137" t="s">
+        <v>351</v>
+      </c>
+      <c r="L137" t="s">
+        <v>347</v>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>525</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>344</v>
+      </c>
+      <c r="D138" t="s">
+        <v>345</v>
+      </c>
+      <c r="E138" t="s">
+        <v>351</v>
+      </c>
+      <c r="G138" t="s">
+        <v>525</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>344</v>
+      </c>
+      <c r="J138" t="s">
+        <v>345</v>
+      </c>
+      <c r="K138" t="s">
+        <v>359</v>
+      </c>
+      <c r="L138" t="s">
+        <v>347</v>
+      </c>
+      <c r="M138" t="str">
+        <f t="shared" si="2"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>526</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>344</v>
+      </c>
+      <c r="D139" t="s">
+        <v>345</v>
+      </c>
+      <c r="E139" t="s">
+        <v>351</v>
+      </c>
+      <c r="G139" t="s">
+        <v>526</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>344</v>
+      </c>
+      <c r="J139" t="s">
+        <v>345</v>
+      </c>
+      <c r="K139" t="s">
+        <v>351</v>
+      </c>
+      <c r="L139" t="s">
+        <v>347</v>
+      </c>
+      <c r="M139" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>527</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>344</v>
+      </c>
+      <c r="D140" t="s">
+        <v>345</v>
+      </c>
+      <c r="E140" t="s">
+        <v>528</v>
+      </c>
+      <c r="G140" t="s">
+        <v>527</v>
+      </c>
+      <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="I140" t="s">
+        <v>344</v>
+      </c>
+      <c r="J140" t="s">
+        <v>345</v>
+      </c>
+      <c r="K140" t="s">
+        <v>528</v>
+      </c>
+      <c r="L140" t="s">
+        <v>347</v>
+      </c>
+      <c r="M140" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>529</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>344</v>
+      </c>
+      <c r="D141" t="s">
+        <v>345</v>
+      </c>
+      <c r="E141" t="s">
+        <v>351</v>
+      </c>
+      <c r="G141" t="s">
+        <v>529</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>344</v>
+      </c>
+      <c r="J141" t="s">
+        <v>345</v>
+      </c>
+      <c r="K141" t="s">
+        <v>351</v>
+      </c>
+      <c r="L141" t="s">
+        <v>347</v>
+      </c>
+      <c r="M141" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>530</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>344</v>
+      </c>
+      <c r="D142" t="s">
+        <v>345</v>
+      </c>
+      <c r="E142" t="s">
+        <v>351</v>
+      </c>
+      <c r="G142" t="s">
+        <v>530</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>344</v>
+      </c>
+      <c r="J142" t="s">
+        <v>345</v>
+      </c>
+      <c r="K142" t="s">
+        <v>359</v>
+      </c>
+      <c r="L142" t="s">
+        <v>347</v>
+      </c>
+      <c r="M142" t="str">
+        <f t="shared" si="2"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>531</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>344</v>
+      </c>
+      <c r="D143" t="s">
+        <v>345</v>
+      </c>
+      <c r="E143" t="s">
+        <v>351</v>
+      </c>
+      <c r="G143" t="s">
+        <v>531</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>344</v>
+      </c>
+      <c r="J143" t="s">
+        <v>345</v>
+      </c>
+      <c r="K143" t="s">
+        <v>351</v>
+      </c>
+      <c r="L143" t="s">
+        <v>347</v>
+      </c>
+      <c r="M143" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>532</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>344</v>
+      </c>
+      <c r="D144" t="s">
+        <v>345</v>
+      </c>
+      <c r="E144" t="s">
+        <v>351</v>
+      </c>
+      <c r="G144" t="s">
+        <v>532</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>344</v>
+      </c>
+      <c r="J144" t="s">
+        <v>345</v>
+      </c>
+      <c r="K144" t="s">
+        <v>359</v>
+      </c>
+      <c r="L144" t="s">
+        <v>347</v>
+      </c>
+      <c r="M144" t="str">
+        <f t="shared" si="2"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>533</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>344</v>
+      </c>
+      <c r="D145" t="s">
+        <v>345</v>
+      </c>
+      <c r="E145" t="s">
+        <v>351</v>
+      </c>
+      <c r="G145" t="s">
+        <v>533</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>344</v>
+      </c>
+      <c r="J145" t="s">
+        <v>345</v>
+      </c>
+      <c r="K145" t="s">
+        <v>351</v>
+      </c>
+      <c r="L145" t="s">
+        <v>347</v>
+      </c>
+      <c r="M145" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>534</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>344</v>
+      </c>
+      <c r="D146" t="s">
+        <v>345</v>
+      </c>
+      <c r="E146" t="s">
+        <v>351</v>
+      </c>
+      <c r="G146" t="s">
+        <v>534</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>344</v>
+      </c>
+      <c r="J146" t="s">
+        <v>345</v>
+      </c>
+      <c r="K146" t="s">
+        <v>351</v>
+      </c>
+      <c r="L146" t="s">
+        <v>347</v>
+      </c>
+      <c r="M146" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>535</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>344</v>
+      </c>
+      <c r="D147" t="s">
+        <v>345</v>
+      </c>
+      <c r="E147" t="s">
+        <v>351</v>
+      </c>
+      <c r="G147" t="s">
+        <v>535</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>344</v>
+      </c>
+      <c r="J147" t="s">
+        <v>345</v>
+      </c>
+      <c r="K147" t="s">
+        <v>351</v>
+      </c>
+      <c r="L147" t="s">
+        <v>347</v>
+      </c>
+      <c r="M147" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>536</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>344</v>
+      </c>
+      <c r="D148" t="s">
+        <v>345</v>
+      </c>
+      <c r="E148" t="s">
+        <v>351</v>
+      </c>
+      <c r="G148" t="s">
+        <v>536</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>344</v>
+      </c>
+      <c r="J148" t="s">
+        <v>345</v>
+      </c>
+      <c r="K148" t="s">
+        <v>351</v>
+      </c>
+      <c r="L148" t="s">
+        <v>347</v>
+      </c>
+      <c r="M148" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>537</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>344</v>
+      </c>
+      <c r="D149" t="s">
+        <v>345</v>
+      </c>
+      <c r="E149" t="s">
+        <v>351</v>
+      </c>
+      <c r="G149" t="s">
+        <v>537</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>344</v>
+      </c>
+      <c r="J149" t="s">
+        <v>345</v>
+      </c>
+      <c r="K149" t="s">
+        <v>351</v>
+      </c>
+      <c r="L149" t="s">
+        <v>347</v>
+      </c>
+      <c r="M149" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>538</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>344</v>
+      </c>
+      <c r="D150" t="s">
+        <v>345</v>
+      </c>
+      <c r="E150" t="s">
+        <v>351</v>
+      </c>
+      <c r="G150" t="s">
+        <v>538</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>344</v>
+      </c>
+      <c r="J150" t="s">
+        <v>345</v>
+      </c>
+      <c r="K150" t="s">
+        <v>351</v>
+      </c>
+      <c r="L150" t="s">
+        <v>347</v>
+      </c>
+      <c r="M150" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>539</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>344</v>
+      </c>
+      <c r="D151" t="s">
+        <v>345</v>
+      </c>
+      <c r="E151" t="s">
+        <v>351</v>
+      </c>
+      <c r="G151" t="s">
+        <v>539</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>344</v>
+      </c>
+      <c r="J151" t="s">
+        <v>345</v>
+      </c>
+      <c r="K151" t="s">
+        <v>351</v>
+      </c>
+      <c r="L151" t="s">
+        <v>347</v>
+      </c>
+      <c r="M151" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>540</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>344</v>
+      </c>
+      <c r="D152" t="s">
+        <v>345</v>
+      </c>
+      <c r="E152" t="s">
+        <v>351</v>
+      </c>
+      <c r="G152" t="s">
+        <v>540</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>344</v>
+      </c>
+      <c r="J152" t="s">
+        <v>345</v>
+      </c>
+      <c r="K152" t="s">
+        <v>351</v>
+      </c>
+      <c r="L152" t="s">
+        <v>347</v>
+      </c>
+      <c r="M152" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>541</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>344</v>
+      </c>
+      <c r="D153" t="s">
+        <v>345</v>
+      </c>
+      <c r="E153" t="s">
+        <v>351</v>
+      </c>
+      <c r="G153" t="s">
+        <v>541</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>344</v>
+      </c>
+      <c r="J153" t="s">
+        <v>345</v>
+      </c>
+      <c r="K153" t="s">
+        <v>351</v>
+      </c>
+      <c r="L153" t="s">
+        <v>347</v>
+      </c>
+      <c r="M153" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>542</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>344</v>
+      </c>
+      <c r="D154" t="s">
+        <v>345</v>
+      </c>
+      <c r="E154" t="s">
+        <v>351</v>
+      </c>
+      <c r="G154" t="s">
+        <v>542</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>344</v>
+      </c>
+      <c r="J154" t="s">
+        <v>345</v>
+      </c>
+      <c r="K154" t="s">
+        <v>359</v>
+      </c>
+      <c r="L154" t="s">
+        <v>347</v>
+      </c>
+      <c r="M154" t="str">
+        <f t="shared" si="2"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>543</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>344</v>
+      </c>
+      <c r="D155" t="s">
+        <v>345</v>
+      </c>
+      <c r="E155" t="s">
+        <v>351</v>
+      </c>
+      <c r="G155" t="s">
+        <v>543</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155" t="s">
+        <v>344</v>
+      </c>
+      <c r="J155" t="s">
+        <v>345</v>
+      </c>
+      <c r="K155" t="s">
+        <v>351</v>
+      </c>
+      <c r="L155" t="s">
+        <v>347</v>
+      </c>
+      <c r="M155" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>544</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>344</v>
+      </c>
+      <c r="D156" t="s">
+        <v>345</v>
+      </c>
+      <c r="E156" t="s">
+        <v>349</v>
+      </c>
+      <c r="G156" t="s">
+        <v>544</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156" t="s">
+        <v>344</v>
+      </c>
+      <c r="J156" t="s">
+        <v>345</v>
+      </c>
+      <c r="K156" t="s">
+        <v>349</v>
+      </c>
+      <c r="L156" t="s">
+        <v>347</v>
+      </c>
+      <c r="M156" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>545</v>
+      </c>
+      <c r="B157">
+        <v>573</v>
+      </c>
+      <c r="C157" t="s">
+        <v>344</v>
+      </c>
+      <c r="D157" t="s">
+        <v>345</v>
+      </c>
+      <c r="E157" t="s">
+        <v>546</v>
+      </c>
+      <c r="G157" t="s">
+        <v>545</v>
+      </c>
+      <c r="H157">
+        <v>699</v>
+      </c>
+      <c r="I157" t="s">
+        <v>344</v>
+      </c>
+      <c r="J157" t="s">
+        <v>345</v>
+      </c>
+      <c r="K157" t="s">
+        <v>606</v>
+      </c>
+      <c r="L157" t="s">
+        <v>347</v>
+      </c>
+      <c r="M157" t="str">
+        <f t="shared" si="2"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>547</v>
+      </c>
+      <c r="B158">
+        <v>26</v>
+      </c>
+      <c r="C158" t="s">
+        <v>344</v>
+      </c>
+      <c r="D158" t="s">
+        <v>345</v>
+      </c>
+      <c r="E158" t="s">
+        <v>548</v>
+      </c>
+      <c r="G158" t="s">
+        <v>547</v>
+      </c>
+      <c r="H158">
+        <v>26</v>
+      </c>
+      <c r="I158" t="s">
+        <v>344</v>
+      </c>
+      <c r="J158" t="s">
+        <v>345</v>
+      </c>
+      <c r="K158" t="s">
+        <v>548</v>
+      </c>
+      <c r="L158" t="s">
+        <v>347</v>
+      </c>
+      <c r="M158" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>549</v>
+      </c>
+      <c r="B159">
+        <v>19</v>
+      </c>
+      <c r="C159" t="s">
+        <v>344</v>
+      </c>
+      <c r="D159" t="s">
+        <v>345</v>
+      </c>
+      <c r="E159" t="s">
+        <v>550</v>
+      </c>
+      <c r="G159" t="s">
+        <v>549</v>
+      </c>
+      <c r="H159">
+        <v>19</v>
+      </c>
+      <c r="I159" t="s">
+        <v>344</v>
+      </c>
+      <c r="J159" t="s">
+        <v>345</v>
+      </c>
+      <c r="K159" t="s">
+        <v>550</v>
+      </c>
+      <c r="L159" t="s">
+        <v>347</v>
+      </c>
+      <c r="M159" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>551</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>344</v>
+      </c>
+      <c r="D160" t="s">
+        <v>345</v>
+      </c>
+      <c r="E160" t="s">
+        <v>351</v>
+      </c>
+      <c r="G160" t="s">
+        <v>551</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>344</v>
+      </c>
+      <c r="J160" t="s">
+        <v>345</v>
+      </c>
+      <c r="K160" t="s">
+        <v>351</v>
+      </c>
+      <c r="L160" t="s">
+        <v>347</v>
+      </c>
+      <c r="M160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>552</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>344</v>
+      </c>
+      <c r="D161" t="s">
+        <v>345</v>
+      </c>
+      <c r="E161" t="s">
+        <v>553</v>
+      </c>
+      <c r="G161" t="s">
+        <v>552</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>344</v>
+      </c>
+      <c r="J161" t="s">
+        <v>345</v>
+      </c>
+      <c r="K161" t="s">
+        <v>553</v>
+      </c>
+      <c r="L161" t="s">
+        <v>347</v>
+      </c>
+      <c r="M161" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>554</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>344</v>
+      </c>
+      <c r="D162" t="s">
+        <v>345</v>
+      </c>
+      <c r="E162" t="s">
+        <v>555</v>
+      </c>
+      <c r="G162" t="s">
+        <v>554</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162" t="s">
+        <v>344</v>
+      </c>
+      <c r="J162" t="s">
+        <v>345</v>
+      </c>
+      <c r="K162" t="s">
+        <v>607</v>
+      </c>
+      <c r="L162" t="s">
+        <v>347</v>
+      </c>
+      <c r="M162" t="str">
+        <f t="shared" si="2"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>556</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>344</v>
+      </c>
+      <c r="D163" t="s">
+        <v>345</v>
+      </c>
+      <c r="E163" t="s">
+        <v>351</v>
+      </c>
+      <c r="G163" t="s">
+        <v>556</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>344</v>
+      </c>
+      <c r="J163" t="s">
+        <v>345</v>
+      </c>
+      <c r="K163" t="s">
+        <v>351</v>
+      </c>
+      <c r="L163" t="s">
+        <v>347</v>
+      </c>
+      <c r="M163" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>557</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>344</v>
+      </c>
+      <c r="D164" t="s">
+        <v>345</v>
+      </c>
+      <c r="E164" t="s">
+        <v>558</v>
+      </c>
+      <c r="G164" t="s">
+        <v>557</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>344</v>
+      </c>
+      <c r="J164" t="s">
+        <v>345</v>
+      </c>
+      <c r="K164" t="s">
+        <v>558</v>
+      </c>
+      <c r="L164" t="s">
+        <v>347</v>
+      </c>
+      <c r="M164" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>559</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>344</v>
+      </c>
+      <c r="D165" t="s">
+        <v>345</v>
+      </c>
+      <c r="E165" t="s">
+        <v>560</v>
+      </c>
+      <c r="G165" t="s">
+        <v>559</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>344</v>
+      </c>
+      <c r="J165" t="s">
+        <v>345</v>
+      </c>
+      <c r="K165" t="s">
+        <v>560</v>
+      </c>
+      <c r="L165" t="s">
+        <v>347</v>
+      </c>
+      <c r="M165" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>561</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>344</v>
+      </c>
+      <c r="D166" t="s">
+        <v>345</v>
+      </c>
+      <c r="E166" t="s">
+        <v>351</v>
+      </c>
+      <c r="G166" t="s">
+        <v>561</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>344</v>
+      </c>
+      <c r="J166" t="s">
+        <v>345</v>
+      </c>
+      <c r="K166" t="s">
+        <v>405</v>
+      </c>
+      <c r="L166" t="s">
+        <v>347</v>
+      </c>
+      <c r="M166" t="str">
+        <f t="shared" si="2"/>
+        <v>Not equal</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>562</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>344</v>
+      </c>
+      <c r="D167" t="s">
+        <v>345</v>
+      </c>
+      <c r="E167" t="s">
+        <v>351</v>
+      </c>
+      <c r="G167" t="s">
+        <v>562</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>344</v>
+      </c>
+      <c r="J167" t="s">
+        <v>345</v>
+      </c>
+      <c r="K167" t="s">
+        <v>351</v>
+      </c>
+      <c r="L167" t="s">
+        <v>347</v>
+      </c>
+      <c r="M167" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>563</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>344</v>
+      </c>
+      <c r="D168" t="s">
+        <v>345</v>
+      </c>
+      <c r="E168" t="s">
+        <v>351</v>
+      </c>
+      <c r="G168" t="s">
+        <v>563</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>344</v>
+      </c>
+      <c r="J168" t="s">
+        <v>345</v>
+      </c>
+      <c r="K168" t="s">
+        <v>351</v>
+      </c>
+      <c r="L168" t="s">
+        <v>347</v>
+      </c>
+      <c r="M168" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>564</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>344</v>
+      </c>
+      <c r="D169" t="s">
+        <v>345</v>
+      </c>
+      <c r="E169" t="s">
+        <v>565</v>
+      </c>
+      <c r="G169" t="s">
+        <v>564</v>
+      </c>
+      <c r="H169">
+        <v>4</v>
+      </c>
+      <c r="I169" t="s">
+        <v>344</v>
+      </c>
+      <c r="J169" t="s">
+        <v>345</v>
+      </c>
+      <c r="K169" t="s">
+        <v>565</v>
+      </c>
+      <c r="L169" t="s">
+        <v>347</v>
+      </c>
+      <c r="M169" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>566</v>
+      </c>
+      <c r="B170">
+        <v>4.0270000000000001</v>
+      </c>
+      <c r="C170" t="s">
+        <v>344</v>
+      </c>
+      <c r="D170" t="s">
+        <v>345</v>
+      </c>
+      <c r="E170" t="s">
+        <v>567</v>
+      </c>
+      <c r="G170" t="s">
+        <v>579</v>
+      </c>
+      <c r="H170">
+        <v>4.0529999999999999</v>
+      </c>
+      <c r="I170" t="s">
+        <v>344</v>
+      </c>
+      <c r="J170" t="s">
+        <v>345</v>
+      </c>
+      <c r="K170" t="s">
+        <v>580</v>
+      </c>
+      <c r="L170" t="s">
+        <v>608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>